--- a/GATEWAY/A1#111DEDALUS0000/dedalus/caleido_fse20_connector/2023/accreditamento-checklist_V4.2.xlsx
+++ b/GATEWAY/A1#111DEDALUS0000/dedalus/caleido_fse20_connector/2023/accreditamento-checklist_V4.2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Integrazioni\FSE2-0\All\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucia.trama\OneDrive - Dedalus S.p.A\Documenti\PROGETTI\FSE\2.0\accreditamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17EDF14-54F8-4481-992B-AFAAFF880AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BEA81F-0C3D-469E-BA02-C92DFC0C0DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2137,9 +2137,6 @@
     </r>
   </si>
   <si>
-    <t>76c15d5dc6d482b7</t>
-  </si>
-  <si>
     <t>2.16.840.1.113883.2.9.2.150.4.4.1df96c2fe2b355b4326c5e3ea7e432bc3db238f7dc34c158d7ab6a2446df18d8.7986373edd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
@@ -2275,9 +2272,6 @@
 }</t>
   </si>
   <si>
-    <t>2023-02-24T14:46:56Z</t>
-  </si>
-  <si>
     <t>2023-02-24T14:52:37Z</t>
   </si>
   <si>
@@ -2345,17 +2339,30 @@
   </si>
   <si>
     <t>2023-02-27T14:41:20Z</t>
+  </si>
+  <si>
+    <t>2023-02-28T15:34:29Z</t>
+  </si>
+  <si>
+    <t>c2325269cb25c6c5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2859,186 +2866,186 @@
   </cellStyleXfs>
   <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4488,10 +4495,10 @@
   <dimension ref="A1:T992"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B94" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4537,12 +4544,12 @@
       <c r="T1" s="28"/>
     </row>
     <row r="2" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="51"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="53"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
@@ -4560,14 +4567,14 @@
       <c r="T2" s="28"/>
     </row>
     <row r="3" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="59" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="61" t="s">
         <v>342</v>
       </c>
-      <c r="D3" s="51"/>
+      <c r="D3" s="53"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
@@ -4585,12 +4592,12 @@
       <c r="T3" s="28"/>
     </row>
     <row r="4" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="55"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="59" t="s">
+      <c r="A4" s="57"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="61" t="s">
         <v>343</v>
       </c>
-      <c r="D4" s="51"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="30"/>
       <c r="F4" s="27"/>
       <c r="G4" s="27"/>
@@ -4609,12 +4616,12 @@
       <c r="T4" s="28"/>
     </row>
     <row r="5" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="57"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="59" t="s">
+      <c r="A5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="61" t="s">
         <v>344</v>
       </c>
-      <c r="D5" s="51"/>
+      <c r="D5" s="53"/>
       <c r="F5" s="27"/>
       <c r="G5" s="27"/>
       <c r="H5" s="27"/>
@@ -4632,8 +4639,8 @@
       <c r="T5" s="28"/>
     </row>
     <row r="6" spans="1:20" ht="10.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="48"/>
-      <c r="B6" s="49"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="32"/>
       <c r="F6" s="27"/>
       <c r="G6" s="27"/>
@@ -4770,13 +4777,13 @@
         <v>44984</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H10" s="40" t="s">
+        <v>406</v>
+      </c>
+      <c r="I10" s="40" t="s">
         <v>407</v>
-      </c>
-      <c r="I10" s="40" t="s">
-        <v>408</v>
       </c>
       <c r="J10" s="41" t="s">
         <v>84</v>
@@ -4814,7 +4821,7 @@
         <v>44981</v>
       </c>
       <c r="G11" s="40" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H11" s="40" t="s">
         <v>345</v>
@@ -4858,7 +4865,7 @@
         <v>44981</v>
       </c>
       <c r="G12" s="40" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H12" s="40" t="s">
         <v>347</v>
@@ -4902,7 +4909,7 @@
         <v>44981</v>
       </c>
       <c r="G13" s="40" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H13" s="40" t="s">
         <v>349</v>
@@ -4946,7 +4953,7 @@
         <v>44981</v>
       </c>
       <c r="G14" s="40" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H14" s="40" t="s">
         <v>351</v>
@@ -5106,7 +5113,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="317.39999999999998" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" ht="303" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="36">
         <v>11</v>
       </c>
@@ -5123,16 +5130,16 @@
         <v>48</v>
       </c>
       <c r="F19" s="39">
-        <v>44981</v>
+        <v>44985</v>
       </c>
       <c r="G19" s="40" t="s">
-        <v>413</v>
+        <v>435</v>
       </c>
       <c r="H19" s="40" t="s">
+        <v>436</v>
+      </c>
+      <c r="I19" s="40" t="s">
         <v>379</v>
-      </c>
-      <c r="I19" s="40" t="s">
-        <v>380</v>
       </c>
       <c r="J19" s="41" t="s">
         <v>84</v>
@@ -5174,7 +5181,7 @@
         <v>321</v>
       </c>
       <c r="K20" s="41" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L20" s="41"/>
       <c r="M20" s="41"/>
@@ -5212,7 +5219,7 @@
         <v>321</v>
       </c>
       <c r="K21" s="41" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L21" s="41"/>
       <c r="M21" s="41"/>
@@ -5246,13 +5253,13 @@
         <v>44981</v>
       </c>
       <c r="G22" s="40" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H22" s="40" t="s">
+        <v>382</v>
+      </c>
+      <c r="I22" s="40" t="s">
         <v>383</v>
-      </c>
-      <c r="I22" s="40" t="s">
-        <v>384</v>
       </c>
       <c r="J22" s="41" t="s">
         <v>84</v>
@@ -5698,7 +5705,7 @@
         <v>44981</v>
       </c>
       <c r="G35" s="40" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H35" s="40" t="s">
         <v>353</v>
@@ -5786,10 +5793,10 @@
         <v>44981</v>
       </c>
       <c r="G37" s="40" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H37" s="40" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I37" s="40" t="s">
         <v>354</v>
@@ -5942,7 +5949,7 @@
         <v>44981</v>
       </c>
       <c r="G41" s="40" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H41" s="40" t="s">
         <v>357</v>
@@ -6030,13 +6037,13 @@
         <v>44981</v>
       </c>
       <c r="G43" s="40" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H43" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="I43" s="40" t="s">
         <v>386</v>
-      </c>
-      <c r="I43" s="40" t="s">
-        <v>387</v>
       </c>
       <c r="J43" s="41" t="s">
         <v>84</v>
@@ -6516,7 +6523,7 @@
         <v>44981</v>
       </c>
       <c r="G56" s="40" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H56" s="40"/>
       <c r="I56" s="40"/>
@@ -6560,7 +6567,7 @@
         <v>44984</v>
       </c>
       <c r="G57" s="40" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H57" s="40"/>
       <c r="I57" s="40"/>
@@ -6578,7 +6585,7 @@
       <c r="Q57" s="41"/>
       <c r="R57" s="44"/>
       <c r="S57" s="39" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="T57" s="46" t="s">
         <v>330</v>
@@ -6604,7 +6611,7 @@
         <v>44981</v>
       </c>
       <c r="G58" s="40" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H58" s="40" t="s">
         <v>364</v>
@@ -6658,7 +6665,7 @@
         <v>44981</v>
       </c>
       <c r="G59" s="40" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H59" s="40" t="s">
         <v>368</v>
@@ -6788,7 +6795,7 @@
         <v>44981</v>
       </c>
       <c r="G62" s="40" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H62" s="40"/>
       <c r="I62" s="40"/>
@@ -6832,7 +6839,7 @@
         <v>44984</v>
       </c>
       <c r="G63" s="40" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H63" s="40"/>
       <c r="I63" s="40"/>
@@ -6850,13 +6857,13 @@
       <c r="Q63" s="41"/>
       <c r="R63" s="44"/>
       <c r="S63" s="39" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="T63" s="46" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="115.2" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:20" ht="115.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="36">
         <v>63</v>
       </c>
@@ -6885,14 +6892,14 @@
       <c r="P64" s="41"/>
       <c r="Q64" s="41"/>
       <c r="R64" s="44"/>
-      <c r="S64" s="60" t="s">
+      <c r="S64" s="48" t="s">
         <v>376</v>
       </c>
       <c r="T64" s="46" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="115.2" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:20" ht="115.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="36">
         <v>64</v>
       </c>
@@ -6921,14 +6928,14 @@
       <c r="P65" s="41"/>
       <c r="Q65" s="41"/>
       <c r="R65" s="44"/>
-      <c r="S65" s="60" t="s">
+      <c r="S65" s="48" t="s">
         <v>377</v>
       </c>
       <c r="T65" s="46" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="115.2" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:20" ht="115.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="36">
         <v>65</v>
       </c>
@@ -6957,14 +6964,14 @@
       <c r="P66" s="41"/>
       <c r="Q66" s="41"/>
       <c r="R66" s="44"/>
-      <c r="S66" s="60" t="s">
+      <c r="S66" s="48" t="s">
         <v>378</v>
       </c>
       <c r="T66" s="46" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="115.2" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:20" ht="115.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="36">
         <v>66</v>
       </c>
@@ -6993,7 +7000,7 @@
       <c r="P67" s="41"/>
       <c r="Q67" s="41"/>
       <c r="R67" s="44"/>
-      <c r="S67" s="60" t="s">
+      <c r="S67" s="48" t="s">
         <v>363</v>
       </c>
       <c r="T67" s="46" t="s">
@@ -7406,7 +7413,7 @@
         <v>44981</v>
       </c>
       <c r="G79" s="40" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H79" s="40"/>
       <c r="I79" s="40"/>
@@ -7424,7 +7431,7 @@
       <c r="Q79" s="41"/>
       <c r="R79" s="44"/>
       <c r="S79" s="42" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="T79" s="46" t="s">
         <v>330</v>
@@ -7450,7 +7457,7 @@
         <v>44981</v>
       </c>
       <c r="G80" s="40" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H80" s="40"/>
       <c r="I80" s="40"/>
@@ -7468,7 +7475,7 @@
       <c r="Q80" s="41"/>
       <c r="R80" s="44"/>
       <c r="S80" s="42" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="T80" s="46" t="s">
         <v>330</v>
@@ -7494,13 +7501,13 @@
         <v>44981</v>
       </c>
       <c r="G81" s="40" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H81" s="40" t="s">
+        <v>389</v>
+      </c>
+      <c r="I81" s="40" t="s">
         <v>390</v>
-      </c>
-      <c r="I81" s="40" t="s">
-        <v>391</v>
       </c>
       <c r="J81" s="41" t="s">
         <v>84</v>
@@ -7552,7 +7559,7 @@
         <v>321</v>
       </c>
       <c r="K82" s="41" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="L82" s="41"/>
       <c r="M82" s="41"/>
@@ -7586,13 +7593,13 @@
         <v>44981</v>
       </c>
       <c r="G83" s="40" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H83" s="40" t="s">
+        <v>392</v>
+      </c>
+      <c r="I83" s="40" t="s">
         <v>393</v>
-      </c>
-      <c r="I83" s="40" t="s">
-        <v>394</v>
       </c>
       <c r="J83" s="41" t="s">
         <v>84</v>
@@ -7668,15 +7675,15 @@
         <v>44981</v>
       </c>
       <c r="G85" s="40" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H85" s="40"/>
       <c r="I85" s="40"/>
       <c r="J85" s="41" t="s">
         <v>321</v>
       </c>
-      <c r="K85" s="61" t="s">
-        <v>395</v>
+      <c r="K85" s="49" t="s">
+        <v>394</v>
       </c>
       <c r="L85" s="41"/>
       <c r="M85" s="41"/>
@@ -7686,7 +7693,7 @@
       <c r="Q85" s="41"/>
       <c r="R85" s="44"/>
       <c r="S85" s="42" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="T85" s="46" t="s">
         <v>330</v>
@@ -7716,7 +7723,7 @@
         <v>321</v>
       </c>
       <c r="K86" s="41" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="L86" s="41"/>
       <c r="M86" s="41"/>
@@ -7754,7 +7761,7 @@
         <v>321</v>
       </c>
       <c r="K87" s="41" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L87" s="41"/>
       <c r="M87" s="41"/>
@@ -7792,7 +7799,7 @@
         <v>321</v>
       </c>
       <c r="K88" s="41" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L88" s="41"/>
       <c r="M88" s="41"/>
@@ -7826,7 +7833,7 @@
         <v>44984</v>
       </c>
       <c r="G89" s="40" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H89" s="40"/>
       <c r="I89" s="40"/>
@@ -7834,7 +7841,7 @@
         <v>321</v>
       </c>
       <c r="K89" s="41" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L89" s="41"/>
       <c r="M89" s="41"/>
@@ -7844,7 +7851,7 @@
       <c r="Q89" s="41"/>
       <c r="R89" s="44"/>
       <c r="S89" s="42" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="T89" s="46" t="s">
         <v>330</v>
@@ -7874,7 +7881,7 @@
         <v>321</v>
       </c>
       <c r="K90" s="41" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L90" s="41"/>
       <c r="M90" s="41"/>
@@ -7912,7 +7919,7 @@
         <v>321</v>
       </c>
       <c r="K91" s="41" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L91" s="41"/>
       <c r="M91" s="41"/>
@@ -7921,8 +7928,8 @@
       <c r="P91" s="41"/>
       <c r="Q91" s="41"/>
       <c r="R91" s="44"/>
-      <c r="S91" s="61" t="s">
-        <v>411</v>
+      <c r="S91" s="49" t="s">
+        <v>410</v>
       </c>
       <c r="T91" s="46" t="s">
         <v>330</v>
@@ -7952,7 +7959,7 @@
         <v>321</v>
       </c>
       <c r="K92" s="41" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L92" s="41"/>
       <c r="M92" s="41"/>
@@ -7986,13 +7993,13 @@
         <v>44981</v>
       </c>
       <c r="G93" s="40" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="H93" s="40" t="s">
+        <v>402</v>
+      </c>
+      <c r="I93" s="40" t="s">
         <v>403</v>
-      </c>
-      <c r="I93" s="40" t="s">
-        <v>404</v>
       </c>
       <c r="J93" s="41" t="s">
         <v>84</v>
@@ -8034,7 +8041,7 @@
         <v>321</v>
       </c>
       <c r="K94" s="41" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L94" s="41"/>
       <c r="M94" s="41"/>
@@ -8048,7 +8055,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" ht="273.60000000000002" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="36">
         <v>94</v>
       </c>
@@ -8082,7 +8089,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20" ht="273.60000000000002" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="36">
         <v>95</v>
       </c>
@@ -8116,7 +8123,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:20" ht="244.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="36">
         <v>96</v>
       </c>
@@ -8150,7 +8157,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:20" ht="259.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="36">
         <v>97</v>
       </c>
@@ -8184,7 +8191,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:20" ht="273.60000000000002" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="36">
         <v>98</v>
       </c>
@@ -8218,7 +8225,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:20" ht="273.60000000000002" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="36">
         <v>99</v>
       </c>
@@ -8252,7 +8259,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:20" ht="244.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="36">
         <v>100</v>
       </c>
@@ -8286,7 +8293,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:20" ht="259.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="36">
         <v>101</v>
       </c>
@@ -8320,7 +8327,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:20" ht="273.60000000000002" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="36">
         <v>102</v>
       </c>
@@ -8354,7 +8361,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:20" ht="273.60000000000002" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="36">
         <v>103</v>
       </c>
@@ -8388,7 +8395,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:20" ht="244.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="36">
         <v>104</v>
       </c>
@@ -8422,7 +8429,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:20" ht="273.60000000000002" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="36">
         <v>105</v>
       </c>
@@ -8456,7 +8463,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:20" ht="273.60000000000002" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="36">
         <v>106</v>
       </c>
@@ -8490,7 +8497,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:20" ht="273.60000000000002" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="36">
         <v>107</v>
       </c>
@@ -8524,7 +8531,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:20" ht="273.60000000000002" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="36">
         <v>108</v>
       </c>
@@ -8558,7 +8565,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:20" ht="273.60000000000002" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="36">
         <v>109</v>
       </c>
@@ -8592,7 +8599,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:20" ht="259.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="36">
         <v>110</v>
       </c>
@@ -8626,7 +8633,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:20" ht="273.60000000000002" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="36">
         <v>111</v>
       </c>
@@ -8660,7 +8667,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:20" ht="273.60000000000002" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="36">
         <v>112</v>
       </c>
@@ -8694,7 +8701,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:20" ht="273.60000000000002" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="36">
         <v>113</v>
       </c>
@@ -8728,7 +8735,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:20" ht="273.60000000000002" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="36">
         <v>114</v>
       </c>
@@ -8762,7 +8769,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:20" ht="273.60000000000002" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="36">
         <v>115</v>
       </c>
@@ -8796,7 +8803,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:20" ht="273.60000000000002" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="36">
         <v>116</v>
       </c>
@@ -8830,7 +8837,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:20" ht="273.60000000000002" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="36">
         <v>117</v>
       </c>
@@ -8864,7 +8871,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:20" ht="273.60000000000002" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="36">
         <v>118</v>
       </c>
@@ -8898,7 +8905,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:20" ht="273.60000000000002" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="36">
         <v>119</v>
       </c>
@@ -8932,7 +8939,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:20" ht="273.60000000000002" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="36">
         <v>120</v>
       </c>
@@ -8966,7 +8973,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:20" ht="273.60000000000002" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="36">
         <v>121</v>
       </c>
@@ -9000,7 +9007,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:20" ht="259.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="36">
         <v>122</v>
       </c>
@@ -9034,7 +9041,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:20" ht="259.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="36">
         <v>123</v>
       </c>
@@ -9068,7 +9075,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:20" ht="259.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="36">
         <v>124</v>
       </c>
@@ -9102,7 +9109,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:20" ht="273.60000000000002" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="36">
         <v>125</v>
       </c>
@@ -9136,7 +9143,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:20" ht="259.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="36">
         <v>126</v>
       </c>
@@ -9170,7 +9177,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:20" ht="259.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="36">
         <v>127</v>
       </c>
@@ -9204,7 +9211,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:20" ht="259.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="36">
         <v>128</v>
       </c>
@@ -9238,7 +9245,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:20" ht="273.60000000000002" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="36">
         <v>129</v>
       </c>
@@ -9272,7 +9279,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:20" ht="259.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="36">
         <v>130</v>
       </c>
@@ -9306,7 +9313,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:20" ht="259.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="36">
         <v>131</v>
       </c>
@@ -9340,7 +9347,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="133" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:20" ht="259.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="36">
         <v>132</v>
       </c>
@@ -9374,7 +9381,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:20" ht="273.60000000000002" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="36">
         <v>133</v>
       </c>
@@ -9408,7 +9415,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:20" ht="259.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="36">
         <v>134</v>
       </c>
@@ -9442,7 +9449,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:20" ht="259.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="36">
         <v>135</v>
       </c>
@@ -9476,7 +9483,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:20" ht="259.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="36">
         <v>136</v>
       </c>
@@ -9510,7 +9517,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:20" ht="273.60000000000002" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="36">
         <v>137</v>
       </c>
@@ -9544,7 +9551,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:20" ht="259.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="36">
         <v>138</v>
       </c>
@@ -9578,7 +9585,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:20" ht="259.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="36">
         <v>139</v>
       </c>
@@ -9612,7 +9619,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:20" ht="259.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="36">
         <v>140</v>
       </c>
@@ -9646,7 +9653,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="142" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:20" ht="273.60000000000002" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="36">
         <v>141</v>
       </c>
@@ -9680,7 +9687,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="143" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:20" ht="259.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="36">
         <v>142</v>
       </c>
@@ -9714,7 +9721,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="144" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:20" ht="259.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="36">
         <v>143</v>
       </c>
@@ -9748,7 +9755,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="145" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:20" ht="259.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="36">
         <v>144</v>
       </c>
@@ -9782,7 +9789,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="146" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:20" ht="273.60000000000002" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="36">
         <v>145</v>
       </c>
@@ -9816,7 +9823,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="147" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:20" ht="273.60000000000002" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="36">
         <v>146</v>
       </c>
@@ -26424,14 +26431,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -26666,27 +26671,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAAC13FE-B745-460A-BC76-FAEE62F3EBA1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F02EBF-A415-4FB6-A4E4-A6920890B7C4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -26711,9 +26709,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F02EBF-A415-4FB6-A4E4-A6920890B7C4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAAC13FE-B745-460A-BC76-FAEE62F3EBA1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
